--- a/run1/P04_MF2/T02_optuna/S02_combine_study.xlsx
+++ b/run1/P04_MF2/T02_optuna/S02_combine_study.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -542,36 +542,36 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'criterion': 'absolute_error', 'splitter': 'random', 'max_depth': 3, 'min_samples_split': 26, 'min_samples_leaf': 3, 'min_weight_fraction_leaf': 0.13932323211830572, 'max_features': 0.5, 'max_leaf_nodes': None, 'min_impurity_decrease': 4.773901130843782e-05, 'ccp_alpha': 2.827801042638613e-07}</t>
+          <t>{'criterion': 'squared_error', 'splitter': 'random', 'max_depth': 2, 'min_samples_split': 8, 'min_samples_leaf': 13, 'min_weight_fraction_leaf': 0.12275235456858997, 'max_features': 0.8, 'max_leaf_nodes': None, 'min_impurity_decrease': 7.142233583581369e-05, 'ccp_alpha': 0.009615507550695564}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-0.1026851509150722</v>
+        <v>-0.1393456539516884</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8810234512357573</v>
+        <v>0.8460095525646669</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08851050133805245</v>
+        <v>0.06792743305267041</v>
       </c>
       <c r="L2" t="n">
-        <v>1.657184863330496</v>
+        <v>1.451561166652853</v>
       </c>
       <c r="M2" t="n">
-        <v>0.394442844496685</v>
+        <v>0.2883498225225779</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1026851509150722</v>
+        <v>0.1393456539516884</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05347168294454552</v>
+        <v>0.02774485223646432</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>{'criterion': 'absolute_error', 'splitter': 'random', 'max_depth': 3, 'min_samples_split': 26, 'min_samples_leaf': 3, 'min_weight_fraction_leaf': 0.13932323211830572, 'max_features': 0.5, 'max_leaf_nodes': None, 'min_impurity_decrease': 4.773901130843782e-05, 'ccp_alpha': 2.827801042638613e-07, 'random_state': 42}</t>
+          <t>{'criterion': 'squared_error', 'splitter': 'random', 'max_depth': 2, 'min_samples_split': 8, 'min_samples_leaf': 13, 'min_weight_fraction_leaf': 0.12275235456858997, 'max_features': 0.8, 'max_leaf_nodes': None, 'min_impurity_decrease': 7.142233583581369e-05, 'ccp_alpha': 0.009615507550695564, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -602,36 +602,36 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'criterion': 'absolute_error', 'splitter': 'random', 'max_depth': 3, 'min_samples_split': 26, 'min_samples_leaf': 3, 'min_weight_fraction_leaf': 0.13932323211830572, 'max_features': 0.5, 'max_leaf_nodes': None, 'min_impurity_decrease': 4.773901130843782e-05, 'ccp_alpha': 2.827801042638613e-07}</t>
+          <t>{'criterion': 'squared_error', 'splitter': 'random', 'max_depth': 32, 'min_samples_split': 50, 'min_samples_leaf': 11, 'min_weight_fraction_leaf': 0.012087535783567731, 'max_features': 0.8, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0025901059468770864, 'ccp_alpha': 2.480314510527679e-06}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-0.0787603354495884</v>
+        <v>-0.1095331041387909</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J3" t="n">
-        <v>0.901143527282001</v>
+        <v>0.8753467528397246</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05599860659097627</v>
+        <v>0.06568225243698343</v>
       </c>
       <c r="L3" t="n">
-        <v>1.934319035147963</v>
+        <v>1.887708087719312</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4981751257880568</v>
+        <v>0.378770934794219</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0787603354495884</v>
+        <v>0.1095331041387909</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03526716690810861</v>
+        <v>0.02527852630607865</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>{'criterion': 'absolute_error', 'splitter': 'random', 'max_depth': 3, 'min_samples_split': 26, 'min_samples_leaf': 3, 'min_weight_fraction_leaf': 0.13932323211830572, 'max_features': 0.5, 'max_leaf_nodes': None, 'min_impurity_decrease': 4.773901130843782e-05, 'ccp_alpha': 2.827801042638613e-07, 'random_state': 42}</t>
+          <t>{'criterion': 'squared_error', 'splitter': 'random', 'max_depth': 32, 'min_samples_split': 50, 'min_samples_leaf': 11, 'min_weight_fraction_leaf': 0.012087535783567731, 'max_features': 0.8, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0025901059468770864, 'ccp_alpha': 2.480314510527679e-06, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -662,36 +662,36 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'criterion': 'absolute_error', 'splitter': 'random', 'max_depth': 3, 'min_samples_split': 26, 'min_samples_leaf': 3, 'min_weight_fraction_leaf': 0.13932323211830572, 'max_features': 0.5, 'max_leaf_nodes': None, 'min_impurity_decrease': 4.773901130843782e-05, 'ccp_alpha': 2.827801042638613e-07}</t>
+          <t>{'criterion': 'absolute_error', 'splitter': 'random', 'max_depth': 16, 'min_samples_split': 17, 'min_samples_leaf': 10, 'min_weight_fraction_leaf': 0.2183580936133118, 'max_features': None, 'max_leaf_nodes': 100, 'min_impurity_decrease': 3.966811348747831e-06, 'ccp_alpha': 0.0006177840352441014}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-0.09909294636046471</v>
+        <v>-0.0994892165534835</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8771580434936996</v>
+        <v>0.87614127012652</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1061949020601733</v>
+        <v>0.1208877076291051</v>
       </c>
       <c r="L4" t="n">
-        <v>1.985792218178243</v>
+        <v>1.817803799382523</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2723183122997168</v>
+        <v>0.3533862882047636</v>
       </c>
       <c r="N4" t="n">
-        <v>0.09909294636046471</v>
+        <v>0.0994892165534835</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02449117263220867</v>
+        <v>0.02008330801147563</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>{'criterion': 'absolute_error', 'splitter': 'random', 'max_depth': 3, 'min_samples_split': 26, 'min_samples_leaf': 3, 'min_weight_fraction_leaf': 0.13932323211830572, 'max_features': 0.5, 'max_leaf_nodes': None, 'min_impurity_decrease': 4.773901130843782e-05, 'ccp_alpha': 2.827801042638613e-07, 'random_state': 42}</t>
+          <t>{'criterion': 'absolute_error', 'splitter': 'random', 'max_depth': 16, 'min_samples_split': 17, 'min_samples_leaf': 10, 'min_weight_fraction_leaf': 0.2183580936133118, 'max_features': None, 'max_leaf_nodes': 100, 'min_impurity_decrease': 3.966811348747831e-06, 'ccp_alpha': 0.0006177840352441014, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -722,36 +722,36 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'criterion': 'absolute_error', 'splitter': 'random', 'max_depth': 3, 'min_samples_split': 26, 'min_samples_leaf': 3, 'min_weight_fraction_leaf': 0.13932323211830572, 'max_features': 0.5, 'max_leaf_nodes': None, 'min_impurity_decrease': 4.773901130843782e-05, 'ccp_alpha': 2.827801042638613e-07}</t>
+          <t>{'criterion': 'squared_error', 'splitter': 'random', 'max_depth': 16, 'min_samples_split': 2, 'min_samples_leaf': 8, 'min_weight_fraction_leaf': 0.12175500580059709, 'max_features': 1.0, 'max_leaf_nodes': 200, 'min_impurity_decrease': 1.9942843042885956e-07, 'ccp_alpha': 0.00010087605955466769}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-0.1344292207719891</v>
+        <v>-0.1610862414312925</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8631572661851321</v>
+        <v>0.834000788131336</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07898745088118538</v>
+        <v>0.08659069425879336</v>
       </c>
       <c r="L5" t="n">
-        <v>1.6725474035801</v>
+        <v>1.901807971264402</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2840373466865602</v>
+        <v>0.3202151592041587</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1344292207719891</v>
+        <v>0.1610862414312925</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03206481974977961</v>
+        <v>0.06496355748146317</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>{'criterion': 'absolute_error', 'splitter': 'random', 'max_depth': 3, 'min_samples_split': 26, 'min_samples_leaf': 3, 'min_weight_fraction_leaf': 0.13932323211830572, 'max_features': 0.5, 'max_leaf_nodes': None, 'min_impurity_decrease': 4.773901130843782e-05, 'ccp_alpha': 2.827801042638613e-07, 'random_state': 42}</t>
+          <t>{'criterion': 'squared_error', 'splitter': 'random', 'max_depth': 16, 'min_samples_split': 2, 'min_samples_leaf': 8, 'min_weight_fraction_leaf': 0.12175500580059709, 'max_features': 1.0, 'max_leaf_nodes': 200, 'min_impurity_decrease': 1.9942843042885956e-07, 'ccp_alpha': 0.00010087605955466769, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -782,36 +782,36 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'criterion': 'absolute_error', 'splitter': 'random', 'max_depth': 3, 'min_samples_split': 26, 'min_samples_leaf': 3, 'min_weight_fraction_leaf': 0.13932323211830572, 'max_features': 0.5, 'max_leaf_nodes': None, 'min_impurity_decrease': 4.773901130843782e-05, 'ccp_alpha': 2.827801042638613e-07}</t>
+          <t>{'criterion': 'friedman_mse', 'splitter': 'random', 'max_depth': 4, 'min_samples_split': 4, 'min_samples_leaf': 17, 'min_weight_fraction_leaf': 0.03367488231953539, 'max_features': 0.8, 'max_leaf_nodes': 500, 'min_impurity_decrease': 3.764502867880673e-07, 'ccp_alpha': 0.00012894693718566936}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-0.1116804116050499</v>
+        <v>-0.1572349826317402</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8686452622679353</v>
+        <v>0.826376479429539</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03026412553576383</v>
+        <v>0.05595402112777269</v>
       </c>
       <c r="L6" t="n">
-        <v>22.1452334874715</v>
+        <v>17.54403143428441</v>
       </c>
       <c r="M6" t="n">
-        <v>20.7797484360408</v>
+        <v>16.47783680023635</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1116804116050499</v>
+        <v>0.1572349826317402</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01192296141502957</v>
+        <v>0.04178776175187809</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>{'criterion': 'absolute_error', 'splitter': 'random', 'max_depth': 3, 'min_samples_split': 26, 'min_samples_leaf': 3, 'min_weight_fraction_leaf': 0.13932323211830572, 'max_features': 0.5, 'max_leaf_nodes': None, 'min_impurity_decrease': 4.773901130843782e-05, 'ccp_alpha': 2.827801042638613e-07, 'random_state': 42}</t>
+          <t>{'criterion': 'friedman_mse', 'splitter': 'random', 'max_depth': 4, 'min_samples_split': 4, 'min_samples_leaf': 17, 'min_weight_fraction_leaf': 0.03367488231953539, 'max_features': 0.8, 'max_leaf_nodes': 500, 'min_impurity_decrease': 3.764502867880673e-07, 'ccp_alpha': 0.00012894693718566936, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -842,36 +842,36 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'alpha': 0.0016878284140548435, 'l1_ratio': 0.42754101835854963, 'fit_intercept': False, 'positive': False, 'max_iter': 424, 'tol': 0.000349022524783825, 'selection': 'cyclic', 'warm_start': False}</t>
+          <t>{'alpha': 0.08529802715173362, 'l1_ratio': 0.49428899245224167, 'fit_intercept': False, 'positive': False, 'max_iter': 298, 'tol': 0.010186370760216359, 'selection': 'random', 'warm_start': True}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-0.1154011468695131</v>
+        <v>-0.1483139773823584</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8685200723965427</v>
+        <v>0.8369780586849179</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03555524526073722</v>
+        <v>0.03724218490544898</v>
       </c>
       <c r="L7" t="n">
-        <v>1.81365370319183</v>
+        <v>1.474845561745593</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4493096660020558</v>
+        <v>0.2973480242597054</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1154011468695131</v>
+        <v>0.1483139773823584</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04134975253787522</v>
+        <v>0.02476036058735281</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>{'alpha': 0.0016878284140548435, 'l1_ratio': 0.42754101835854963, 'fit_intercept': False, 'positive': False, 'max_iter': 424, 'tol': 0.000349022524783825, 'selection': 'cyclic', 'warm_start': False, 'random_state': 42}</t>
+          <t>{'alpha': 0.08529802715173362, 'l1_ratio': 0.49428899245224167, 'fit_intercept': False, 'positive': False, 'max_iter': 298, 'tol': 0.010186370760216359, 'selection': 'random', 'warm_start': True, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -902,36 +902,36 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'alpha': 0.0016878284140548435, 'l1_ratio': 0.42754101835854963, 'fit_intercept': False, 'positive': False, 'max_iter': 424, 'tol': 0.000349022524783825, 'selection': 'cyclic', 'warm_start': False}</t>
+          <t>{'alpha': 0.06571140688552143, 'l1_ratio': 0.8829659505034168, 'fit_intercept': False, 'positive': False, 'max_iter': 230, 'tol': 0.0027007252094242737, 'selection': 'random', 'warm_start': True}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-0.07209568870083358</v>
+        <v>-0.1395569471989491</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J8" t="n">
-        <v>0.91152618876956</v>
+        <v>0.8483240354048964</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0850016608169356</v>
+        <v>0.09971599240454804</v>
       </c>
       <c r="L8" t="n">
-        <v>2.109599705095731</v>
+        <v>1.61953915921071</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4969516410530269</v>
+        <v>0.2851569700469563</v>
       </c>
       <c r="N8" t="n">
-        <v>0.07209568870083358</v>
+        <v>0.1395569471989491</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04340803003903795</v>
+        <v>0.01587481028923262</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>{'alpha': 0.0016878284140548435, 'l1_ratio': 0.42754101835854963, 'fit_intercept': False, 'positive': False, 'max_iter': 424, 'tol': 0.000349022524783825, 'selection': 'cyclic', 'warm_start': False, 'random_state': 42}</t>
+          <t>{'alpha': 0.06571140688552143, 'l1_ratio': 0.8829659505034168, 'fit_intercept': False, 'positive': False, 'max_iter': 230, 'tol': 0.0027007252094242737, 'selection': 'random', 'warm_start': True, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -962,36 +962,36 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'alpha': 0.0016878284140548435, 'l1_ratio': 0.42754101835854963, 'fit_intercept': False, 'positive': False, 'max_iter': 424, 'tol': 0.000349022524783825, 'selection': 'cyclic', 'warm_start': False}</t>
+          <t>{'alpha': 0.09212379490393291, 'l1_ratio': 0.633074002149523, 'fit_intercept': False, 'positive': False, 'max_iter': 1423, 'tol': 3.1963358427743674e-05, 'selection': 'random', 'warm_start': True}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-0.0554949659278248</v>
+        <v>-0.110965802512634</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9132610570883311</v>
+        <v>0.8665069732308696</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1173953956722355</v>
+        <v>0.1172181121301551</v>
       </c>
       <c r="L9" t="n">
-        <v>2.187749817310423</v>
+        <v>1.477669121533241</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6558099563221412</v>
+        <v>0.2021243679089868</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0554949659278248</v>
+        <v>0.110965802512634</v>
       </c>
       <c r="O9" t="n">
-        <v>0.061749656608542</v>
+        <v>0.01394365171809902</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>{'alpha': 0.0016878284140548435, 'l1_ratio': 0.42754101835854963, 'fit_intercept': False, 'positive': False, 'max_iter': 424, 'tol': 0.000349022524783825, 'selection': 'cyclic', 'warm_start': False, 'random_state': 42}</t>
+          <t>{'alpha': 0.09212379490393291, 'l1_ratio': 0.633074002149523, 'fit_intercept': False, 'positive': False, 'max_iter': 1423, 'tol': 3.1963358427743674e-05, 'selection': 'random', 'warm_start': True, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1022,36 +1022,36 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'alpha': 0.0016878284140548435, 'l1_ratio': 0.42754101835854963, 'fit_intercept': False, 'positive': False, 'max_iter': 424, 'tol': 0.000349022524783825, 'selection': 'cyclic', 'warm_start': False}</t>
+          <t>{'alpha': 0.03890452034262176, 'l1_ratio': 0.846988465920794, 'fit_intercept': False, 'positive': False, 'max_iter': 345, 'tol': 0.0018046536693936946, 'selection': 'random', 'warm_start': True}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-0.125546888153696</v>
+        <v>-0.1653408195184069</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8557720621161276</v>
+        <v>0.8197026667263785</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04583644311496357</v>
+        <v>0.03286319567716899</v>
       </c>
       <c r="L10" t="n">
-        <v>2.079989390993182</v>
+        <v>1.677410639250228</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4032565799135532</v>
+        <v>0.3571186380769667</v>
       </c>
       <c r="N10" t="n">
-        <v>0.125546888153696</v>
+        <v>0.1653408195184069</v>
       </c>
       <c r="O10" t="n">
-        <v>0.05246451201296346</v>
+        <v>0.03174461715149911</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>{'alpha': 0.0016878284140548435, 'l1_ratio': 0.42754101835854963, 'fit_intercept': False, 'positive': False, 'max_iter': 424, 'tol': 0.000349022524783825, 'selection': 'cyclic', 'warm_start': False, 'random_state': 42}</t>
+          <t>{'alpha': 0.03890452034262176, 'l1_ratio': 0.846988465920794, 'fit_intercept': False, 'positive': False, 'max_iter': 345, 'tol': 0.0018046536693936946, 'selection': 'random', 'warm_start': True, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1082,36 +1082,36 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'alpha': 0.0016878284140548435, 'l1_ratio': 0.42754101835854963, 'fit_intercept': False, 'positive': False, 'max_iter': 424, 'tol': 0.000349022524783825, 'selection': 'cyclic', 'warm_start': False}</t>
+          <t>{'alpha': 0.03388469103413104, 'l1_ratio': 0.46768487031502554, 'fit_intercept': False, 'positive': False, 'max_iter': 211, 'tol': 0.0009665478857889602, 'selection': 'random', 'warm_start': True}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-0.1589655893305952</v>
+        <v>-0.1808672055732251</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8214446362232815</v>
+        <v>0.8009756999750494</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02311294671839137</v>
+        <v>0.01950990579356896</v>
       </c>
       <c r="L11" t="n">
-        <v>14.60201479601925</v>
+        <v>11.57083276555608</v>
       </c>
       <c r="M11" t="n">
-        <v>13.05588803413776</v>
+        <v>10.27289584877097</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1589655893305952</v>
+        <v>0.1808672055732251</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01640606755398671</v>
+        <v>0.01521592657121854</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>{'alpha': 0.0016878284140548435, 'l1_ratio': 0.42754101835854963, 'fit_intercept': False, 'positive': False, 'max_iter': 424, 'tol': 0.000349022524783825, 'selection': 'cyclic', 'warm_start': False, 'random_state': 42}</t>
+          <t>{'alpha': 0.03388469103413104, 'l1_ratio': 0.46768487031502554, 'fit_intercept': False, 'positive': False, 'max_iter': 211, 'tol': 0.0009665478857889602, 'selection': 'random', 'warm_start': True, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -1142,36 +1142,36 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'learning_rate': 0.0712818805840136, 'max_depth': 8, 'min_samples_split': 57, 'min_samples_leaf': 39, 'subsample': 0.7468977981821954, 'max_features': 1.0, 'loss': 'huber'}</t>
+          <t>{'n_estimators': 360, 'learning_rate': 0.006442756135987403, 'max_depth': 4, 'min_samples_split': 24, 'min_samples_leaf': 2, 'subsample': 0.6929564186505964, 'max_features': 0.8, 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>-0.1596054432194196</v>
+        <v>-0.1892880721402938</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8234427283336307</v>
+        <v>0.7973011344123524</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0437998919304384</v>
+        <v>0.04790700847272041</v>
       </c>
       <c r="L12" t="n">
-        <v>1.690122180432719</v>
+        <v>1.722423649203901</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5658395898843775</v>
+        <v>0.5543675170904777</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1596054432194196</v>
+        <v>0.1892880721402938</v>
       </c>
       <c r="O12" t="n">
-        <v>0.03327242937179054</v>
+        <v>0.02205203077514658</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'learning_rate': 0.0712818805840136, 'max_depth': 8, 'min_samples_split': 57, 'min_samples_leaf': 39, 'subsample': 0.7468977981821954, 'max_features': 1.0, 'loss': 'huber', 'random_state': 42}</t>
+          <t>{'n_estimators': 360, 'learning_rate': 0.006442756135987403, 'max_depth': 4, 'min_samples_split': 24, 'min_samples_leaf': 2, 'subsample': 0.6929564186505964, 'max_features': 0.8, 'loss': 'squared_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -1202,36 +1202,36 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'learning_rate': 0.0712818805840136, 'max_depth': 8, 'min_samples_split': 57, 'min_samples_leaf': 39, 'subsample': 0.7468977981821954, 'max_features': 1.0, 'loss': 'huber'}</t>
+          <t>{'n_estimators': 71, 'learning_rate': 0.036956223975301, 'max_depth': 5, 'min_samples_split': 27, 'min_samples_leaf': 21, 'subsample': 0.5589355305310861, 'max_features': 1.0, 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>-0.1184075154265551</v>
+        <v>-0.1449457034120453</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8695487906871839</v>
+        <v>0.8440644499288603</v>
       </c>
       <c r="K13" t="n">
-        <v>0.09799078027341808</v>
+        <v>0.1020587556032221</v>
       </c>
       <c r="L13" t="n">
-        <v>1.908189641379408</v>
+        <v>1.758177806138298</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3485868276250176</v>
+        <v>0.3333700269571178</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1184075154265551</v>
+        <v>0.1449457034120453</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04713275343116216</v>
+        <v>0.04088601039299253</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'learning_rate': 0.0712818805840136, 'max_depth': 8, 'min_samples_split': 57, 'min_samples_leaf': 39, 'subsample': 0.7468977981821954, 'max_features': 1.0, 'loss': 'huber', 'random_state': 42}</t>
+          <t>{'n_estimators': 71, 'learning_rate': 0.036956223975301, 'max_depth': 5, 'min_samples_split': 27, 'min_samples_leaf': 21, 'subsample': 0.5589355305310861, 'max_features': 1.0, 'loss': 'squared_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -1262,36 +1262,36 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'learning_rate': 0.0712818805840136, 'max_depth': 8, 'min_samples_split': 57, 'min_samples_leaf': 39, 'subsample': 0.7468977981821954, 'max_features': 1.0, 'loss': 'huber'}</t>
+          <t>{'n_estimators': 62, 'learning_rate': 0.030540628108897808, 'max_depth': 3, 'min_samples_split': 56, 'min_samples_leaf': 17, 'subsample': 0.8415131745484122, 'max_features': 1.0, 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-0.1670220545740427</v>
+        <v>-0.1853488995069891</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8059355784004614</v>
+        <v>0.7905857923738054</v>
       </c>
       <c r="K14" t="n">
-        <v>0.09399840595888874</v>
+        <v>0.09176442441012164</v>
       </c>
       <c r="L14" t="n">
-        <v>1.902459242446819</v>
+        <v>1.492380227540386</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5222930495382511</v>
+        <v>0.2487410532896662</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1670220545740427</v>
+        <v>0.1853488995069891</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02565634344224315</v>
+        <v>0.02352257753991001</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'learning_rate': 0.0712818805840136, 'max_depth': 8, 'min_samples_split': 57, 'min_samples_leaf': 39, 'subsample': 0.7468977981821954, 'max_features': 1.0, 'loss': 'huber', 'random_state': 42}</t>
+          <t>{'n_estimators': 62, 'learning_rate': 0.030540628108897808, 'max_depth': 3, 'min_samples_split': 56, 'min_samples_leaf': 17, 'subsample': 0.8415131745484122, 'max_features': 1.0, 'loss': 'squared_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1322,36 +1322,36 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'learning_rate': 0.0712818805840136, 'max_depth': 8, 'min_samples_split': 57, 'min_samples_leaf': 39, 'subsample': 0.7468977981821954, 'max_features': 1.0, 'loss': 'huber'}</t>
+          <t>{'n_estimators': 134, 'learning_rate': 0.02748917918553392, 'max_depth': 4, 'min_samples_split': 2, 'min_samples_leaf': 35, 'subsample': 0.8479401597344811, 'max_features': 1.0, 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>-0.1808099694463586</v>
+        <v>-0.1987486957228165</v>
       </c>
       <c r="I15" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8057984802197973</v>
+        <v>0.7890980353950848</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06060057409637982</v>
+        <v>0.05915343286277937</v>
       </c>
       <c r="L15" t="n">
-        <v>1.818623342061744</v>
+        <v>1.873684311243811</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2934923167612976</v>
+        <v>0.3943123164449603</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1808099694463586</v>
+        <v>0.1987486957228165</v>
       </c>
       <c r="O15" t="n">
-        <v>0.05052405376963973</v>
+        <v>0.04529605743436948</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'learning_rate': 0.0712818805840136, 'max_depth': 8, 'min_samples_split': 57, 'min_samples_leaf': 39, 'subsample': 0.7468977981821954, 'max_features': 1.0, 'loss': 'huber', 'random_state': 42}</t>
+          <t>{'n_estimators': 134, 'learning_rate': 0.02748917918553392, 'max_depth': 4, 'min_samples_split': 2, 'min_samples_leaf': 35, 'subsample': 0.8479401597344811, 'max_features': 1.0, 'loss': 'squared_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1382,36 +1382,36 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'learning_rate': 0.0712818805840136, 'max_depth': 8, 'min_samples_split': 57, 'min_samples_leaf': 39, 'subsample': 0.7468977981821954, 'max_features': 1.0, 'loss': 'huber'}</t>
+          <t>{'n_estimators': 347, 'learning_rate': 0.019310122254946105, 'max_depth': 2, 'min_samples_split': 75, 'min_samples_leaf': 11, 'subsample': 0.5000599451805134, 'max_features': 0.5, 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>-0.1734563217015525</v>
+        <v>-0.1889739117484094</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8050193044400074</v>
+        <v>0.7915891180883222</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03713129328216676</v>
+        <v>0.02951610275198381</v>
       </c>
       <c r="L16" t="n">
-        <v>18.60884111537005</v>
+        <v>18.63057118470655</v>
       </c>
       <c r="M16" t="n">
-        <v>25.6056698511828</v>
+        <v>28.04337968909085</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1734563217015525</v>
+        <v>0.1889739117484094</v>
       </c>
       <c r="O16" t="n">
-        <v>0.03873188899730901</v>
+        <v>0.009292575540605889</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'learning_rate': 0.0712818805840136, 'max_depth': 8, 'min_samples_split': 57, 'min_samples_leaf': 39, 'subsample': 0.7468977981821954, 'max_features': 1.0, 'loss': 'huber', 'random_state': 42}</t>
+          <t>{'n_estimators': 347, 'learning_rate': 0.019310122254946105, 'max_depth': 2, 'min_samples_split': 75, 'min_samples_leaf': 11, 'subsample': 0.5000599451805134, 'max_features': 0.5, 'loss': 'squared_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1442,36 +1442,36 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 46, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 18, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 21, 'weights': 'distance', 'algorithm': 'kd_tree', 'leaf_size': 44, 'p': 2, 'metric': 'minkowski'}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>-0.1136091518716279</v>
+        <v>-0.1172403064620927</v>
       </c>
       <c r="I17" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8720654865554162</v>
+        <v>0.8671112900537329</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04691567638945628</v>
+        <v>0.04867155226733402</v>
       </c>
       <c r="L17" t="n">
-        <v>1.411527159709514</v>
+        <v>1.557568542090828</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3652847805859401</v>
+        <v>0.4334726465858295</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1136091518716279</v>
+        <v>0.1172403064620927</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0145495819746803</v>
+        <v>0.01749057878783167</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 46, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 18, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 21, 'weights': 'distance', 'algorithm': 'kd_tree', 'leaf_size': 44, 'p': 2, 'metric': 'minkowski'}</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -1502,36 +1502,36 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 18, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 26, 'p': 2, 'metric': 'euclidean'}</t>
+          <t>{'n_neighbors': 24, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 60, 'p': 2, 'metric': 'minkowski'}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>-0.08536612437373145</v>
+        <v>-0.09356031140196293</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9003551131765678</v>
+        <v>0.8932424905875345</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1165822469214816</v>
+        <v>0.1155473808985561</v>
       </c>
       <c r="L18" t="n">
-        <v>1.897612046182345</v>
+        <v>1.758428109404556</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2175974074035161</v>
+        <v>0.202085113083049</v>
       </c>
       <c r="N18" t="n">
-        <v>0.08536612437373145</v>
+        <v>0.09356031140196293</v>
       </c>
       <c r="O18" t="n">
-        <v>0.06711811840278439</v>
+        <v>0.05753039839387028</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 18, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 26, 'p': 2, 'metric': 'euclidean'}</t>
+          <t>{'n_neighbors': 24, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 60, 'p': 2, 'metric': 'minkowski'}</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -1562,36 +1562,36 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 28, 'weights': 'distance', 'algorithm': 'ball_tree', 'leaf_size': 10, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 39, 'weights': 'distance', 'algorithm': 'kd_tree', 'leaf_size': 13, 'p': 2, 'metric': 'manhattan'}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-0.100808301581156</v>
+        <v>-0.1030709045530107</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8779418710776032</v>
+        <v>0.8767070316620362</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1138364930331523</v>
+        <v>0.1205876170853832</v>
       </c>
       <c r="L19" t="n">
-        <v>1.537309803942856</v>
+        <v>1.463419371008972</v>
       </c>
       <c r="M19" t="n">
-        <v>0.06386962319764698</v>
+        <v>0.105694535893601</v>
       </c>
       <c r="N19" t="n">
-        <v>0.100808301581156</v>
+        <v>0.1030709045530107</v>
       </c>
       <c r="O19" t="n">
-        <v>0.04919134816594728</v>
+        <v>0.05489648402872855</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 28, 'weights': 'distance', 'algorithm': 'ball_tree', 'leaf_size': 10, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 39, 'weights': 'distance', 'algorithm': 'kd_tree', 'leaf_size': 13, 'p': 2, 'metric': 'manhattan'}</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1622,36 +1622,36 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 46, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 18, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 50, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 48, 'p': 1, 'metric': 'manhattan'}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>-0.1188569463620424</v>
+        <v>-0.1212933177131925</v>
       </c>
       <c r="I20" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8718304660154668</v>
+        <v>0.8698383702934922</v>
       </c>
       <c r="K20" t="n">
-        <v>0.06538006848950928</v>
+        <v>0.06817715335184985</v>
       </c>
       <c r="L20" t="n">
-        <v>1.589276786121989</v>
+        <v>1.569593630310379</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2374691387531203</v>
+        <v>0.24467887185163</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1188569463620424</v>
+        <v>0.1212933177131925</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01747743384694044</v>
+        <v>0.01702800439269718</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 46, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 18, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 50, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 48, 'p': 1, 'metric': 'manhattan'}</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1682,36 +1682,36 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 46, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 18, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 36, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 46, 'p': 2, 'metric': 'manhattan'}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>-0.1192644245805512</v>
+        <v>-0.1236327723468756</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8683550762966544</v>
+        <v>0.8638177053134845</v>
       </c>
       <c r="K21" t="n">
-        <v>0.04259010122280246</v>
+        <v>0.04242073657360337</v>
       </c>
       <c r="L21" t="n">
-        <v>16.97596189880526</v>
+        <v>18.96710727761636</v>
       </c>
       <c r="M21" t="n">
-        <v>20.75662233915838</v>
+        <v>23.88720758013741</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1192644245805512</v>
+        <v>0.1236327723468756</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0267230426117206</v>
+        <v>0.02600111366046526</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 46, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 18, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 36, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 46, 'p': 2, 'metric': 'manhattan'}</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -1742,36 +1742,36 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 172, 'max_depth': 7, 'min_samples_split': 17, 'min_samples_leaf': 4, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'absolute_error'}</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>-0.1530884458691317</v>
+        <v>-0.1909459742247377</v>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8333525854297548</v>
+        <v>0.7954266685492022</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05546934875196752</v>
+        <v>0.0728862369428451</v>
       </c>
       <c r="L22" t="n">
-        <v>1.510178919867809</v>
+        <v>1.631269382357813</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4141188520815947</v>
+        <v>0.488150395975821</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1530884458691317</v>
+        <v>0.1909459742247377</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01889083931461732</v>
+        <v>0.04906636183817827</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 172, 'max_depth': 7, 'min_samples_split': 17, 'min_samples_leaf': 4, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'absolute_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
@@ -1802,36 +1802,36 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 166, 'max_depth': 28, 'min_samples_split': 18, 'min_samples_leaf': 7, 'max_features': 1.0, 'bootstrap': True, 'criterion': 'absolute_error'}</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-0.1207398822754027</v>
+        <v>-0.1442386653729255</v>
       </c>
       <c r="I23" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8700304174055954</v>
+        <v>0.8442265728273054</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1278284258756541</v>
+        <v>0.1080631637931568</v>
       </c>
       <c r="L23" t="n">
-        <v>1.784610514085854</v>
+        <v>1.832807292235803</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2705611259411611</v>
+        <v>0.3351298199267977</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1207398822754027</v>
+        <v>0.1442386653729255</v>
       </c>
       <c r="O23" t="n">
-        <v>0.05395312657130509</v>
+        <v>0.03481371579835622</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 166, 'max_depth': 28, 'min_samples_split': 18, 'min_samples_leaf': 7, 'max_features': 1.0, 'bootstrap': True, 'criterion': 'absolute_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
@@ -1862,36 +1862,36 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>{'n_estimators': 61, 'max_depth': 5, 'min_samples_split': 4, 'min_samples_leaf': 17, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 100, 'max_depth': 57, 'min_samples_split': 7, 'min_samples_leaf': 9, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>-0.1557885085256917</v>
+        <v>-0.1860975434090514</v>
       </c>
       <c r="I24" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8240164592906686</v>
+        <v>0.7870866514378051</v>
       </c>
       <c r="K24" t="n">
-        <v>0.08773281935150727</v>
+        <v>0.08506879187122723</v>
       </c>
       <c r="L24" t="n">
-        <v>1.652209507406707</v>
+        <v>1.764787146169476</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4167451820087974</v>
+        <v>0.4232173731089259</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1557885085256917</v>
+        <v>0.1860975434090514</v>
       </c>
       <c r="O24" t="n">
-        <v>0.03517306012395962</v>
+        <v>0.02470867828452591</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>{'n_estimators': 61, 'max_depth': 5, 'min_samples_split': 4, 'min_samples_leaf': 17, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 100, 'max_depth': 57, 'min_samples_split': 7, 'min_samples_leaf': 9, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -1922,36 +1922,36 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 90, 'max_depth': 8, 'min_samples_split': 12, 'min_samples_leaf': 14, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>-0.1586465260956989</v>
+        <v>-0.1788651094660444</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8312815580804062</v>
+        <v>0.8069188200465638</v>
       </c>
       <c r="K25" t="n">
-        <v>0.05720427715404765</v>
+        <v>0.05802375849500005</v>
       </c>
       <c r="L25" t="n">
-        <v>1.718899470221745</v>
+        <v>2.055955773348884</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4053059739118508</v>
+        <v>0.6853081543340404</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1586465260956989</v>
+        <v>0.1788651094660444</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02911131908486413</v>
+        <v>0.05130140257231513</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 90, 'max_depth': 8, 'min_samples_split': 12, 'min_samples_leaf': 14, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -1982,36 +1982,36 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>{'n_estimators': 61, 'max_depth': 5, 'min_samples_split': 4, 'min_samples_leaf': 17, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 60, 'max_depth': 5, 'min_samples_split': 9, 'min_samples_leaf': 2, 'max_features': 0.5, 'bootstrap': True, 'criterion': 'absolute_error'}</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>-0.1561320292903184</v>
+        <v>-0.1977091817185002</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8273836905629257</v>
+        <v>0.7838471924956245</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0450068905265678</v>
+        <v>0.02977363177901288</v>
       </c>
       <c r="L26" t="n">
-        <v>15.64067190932537</v>
+        <v>17.44996562793757</v>
       </c>
       <c r="M26" t="n">
-        <v>18.97248523275283</v>
+        <v>22.48725005838917</v>
       </c>
       <c r="N26" t="n">
-        <v>0.1561320292903184</v>
+        <v>0.1977091817185002</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02963289917850247</v>
+        <v>0.03140347735850594</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>{'n_estimators': 61, 'max_depth': 5, 'min_samples_split': 4, 'min_samples_leaf': 17, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 60, 'max_depth': 5, 'min_samples_split': 9, 'min_samples_leaf': 2, 'max_features': 0.5, 'bootstrap': True, 'criterion': 'absolute_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -2042,36 +2042,36 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'epsilon': 4.956947932799957e-06, 'gamma_choice': 'scale', 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False}</t>
+          <t>{'kernel': 'linear', 'C': 0.006120054493321394, 'epsilon': 0.0006786255268199023, 'gamma_choice': 'auto', 'coef0': 0.9357019714168382, 'shrinking': True}</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>-0.07138031993695579</v>
+        <v>-0.1093286628098473</v>
       </c>
       <c r="I27" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J27" t="n">
-        <v>0.913482978373457</v>
+        <v>0.8756233719594334</v>
       </c>
       <c r="K27" t="n">
-        <v>0.05971894999494602</v>
+        <v>0.05782815852538789</v>
       </c>
       <c r="L27" t="n">
-        <v>1.244998191215757</v>
+        <v>1.418690125264145</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1033465180555371</v>
+        <v>0.2187001506345552</v>
       </c>
       <c r="N27" t="n">
-        <v>0.07138031993695579</v>
+        <v>0.1093286628098473</v>
       </c>
       <c r="O27" t="n">
-        <v>0.02605149393171798</v>
+        <v>0.02941521099131607</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'gamma': 'scale', 'epsilon': 4.956947932799957e-06, 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False, 'max_iter': 500000}</t>
+          <t>{'kernel': 'linear', 'C': 0.006120054493321394, 'gamma': 'auto', 'epsilon': 0.0006786255268199023, 'coef0': 0.9357019714168382, 'degree': 3, 'shrinking': True, 'max_iter': 500000}</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E28" t="n">
         <v>2</v>
@@ -2102,36 +2102,36 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'epsilon': 4.956947932799957e-06, 'gamma_choice': 'scale', 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False}</t>
+          <t>{'kernel': 'sigmoid', 'C': 0.2415988903559071, 'epsilon': 1.8082736674594963e-05, 'gamma_choice': 'scale', 'coef0': -0.6784780581934107, 'shrinking': True}</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>-0.03133141312815504</v>
+        <v>-0.1021419159662153</v>
       </c>
       <c r="I28" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9566927091189568</v>
+        <v>0.8851382033612991</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1229892347577336</v>
+        <v>0.102213093127343</v>
       </c>
       <c r="L28" t="n">
-        <v>1.521720741864376</v>
+        <v>1.575863323267913</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1577922081633606</v>
+        <v>0.1777898956327218</v>
       </c>
       <c r="N28" t="n">
-        <v>0.03133141312815504</v>
+        <v>0.1021419159662153</v>
       </c>
       <c r="O28" t="n">
-        <v>0.04980937268159137</v>
+        <v>0.02936206237534235</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'gamma': 'scale', 'epsilon': 4.956947932799957e-06, 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False, 'max_iter': 500000}</t>
+          <t>{'kernel': 'sigmoid', 'C': 0.2415988903559071, 'gamma': 'scale', 'epsilon': 1.8082736674594963e-05, 'coef0': -0.6784780581934107, 'degree': 3, 'shrinking': True, 'max_iter': 500000}</t>
         </is>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
@@ -2162,36 +2162,36 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'epsilon': 4.956947932799957e-06, 'gamma_choice': 'scale', 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False}</t>
+          <t>{'kernel': 'linear', 'C': 0.005966580444372677, 'epsilon': 0.003179789900592275, 'gamma_choice': 'float', 'gamma': 0.007882264813088728, 'coef0': 0.21019562740656164, 'shrinking': True}</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>-0.03625399646372676</v>
+        <v>-0.09083935602750652</v>
       </c>
       <c r="I29" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J29" t="n">
-        <v>0.942302207512772</v>
+        <v>0.8878407474746375</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1229341643275235</v>
+        <v>0.1099713173884526</v>
       </c>
       <c r="L29" t="n">
-        <v>1.485564117363186</v>
+        <v>1.727067936617444</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2861301293330281</v>
+        <v>0.3825069536443679</v>
       </c>
       <c r="N29" t="n">
-        <v>0.03625399646372676</v>
+        <v>0.09083935602750652</v>
       </c>
       <c r="O29" t="n">
-        <v>0.01737641579212043</v>
+        <v>0.01634215140775337</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'gamma': 'scale', 'epsilon': 4.956947932799957e-06, 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False, 'max_iter': 500000}</t>
+          <t>{'kernel': 'linear', 'C': 0.005966580444372677, 'gamma': 0.007882264813088728, 'epsilon': 0.003179789900592275, 'coef0': 0.21019562740656164, 'degree': 3, 'shrinking': True, 'max_iter': 500000}</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2222,36 +2222,36 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'epsilon': 4.956947932799957e-06, 'gamma_choice': 'scale', 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False}</t>
+          <t>{'kernel': 'rbf', 'C': 0.37275190587150353, 'epsilon': 0.009874391299739027, 'gamma_choice': 'scale', 'coef0': -0.2815322806049454, 'shrinking': False}</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>-0.0758778269821385</v>
+        <v>-0.1300128899916722</v>
       </c>
       <c r="I30" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9141731474699526</v>
+        <v>0.8568823700912092</v>
       </c>
       <c r="K30" t="n">
-        <v>0.07517408116901021</v>
+        <v>0.04247036113820746</v>
       </c>
       <c r="L30" t="n">
-        <v>1.42310159205224</v>
+        <v>1.673595453994035</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1811475373261296</v>
+        <v>0.2980735843784205</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0758778269821385</v>
+        <v>0.1300128899916722</v>
       </c>
       <c r="O30" t="n">
-        <v>0.009971459526957686</v>
+        <v>0.02225884285368043</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'gamma': 'scale', 'epsilon': 4.956947932799957e-06, 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False, 'max_iter': 500000}</t>
+          <t>{'kernel': 'rbf', 'C': 0.37275190587150353, 'gamma': 'scale', 'epsilon': 0.009874391299739027, 'coef0': -0.2815322806049454, 'degree': 3, 'shrinking': False, 'max_iter': 500000}</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2282,36 +2282,36 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'epsilon': 4.956947932799957e-06, 'gamma_choice': 'scale', 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False}</t>
+          <t>{'kernel': 'linear', 'C': 0.012708183589980318, 'epsilon': 0.9108190770693683, 'gamma_choice': 'auto', 'coef0': 0.5151520102731548, 'shrinking': False}</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>-0.09888323453721586</v>
+        <v>-0.1548862451936283</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8890140590762969</v>
+        <v>0.831516497423497</v>
       </c>
       <c r="K31" t="n">
-        <v>0.03968735494519929</v>
+        <v>0.042596026183091</v>
       </c>
       <c r="L31" t="n">
-        <v>4.535771251028287</v>
+        <v>12.91205740200535</v>
       </c>
       <c r="M31" t="n">
-        <v>3.56866510299908</v>
+        <v>13.30252940503249</v>
       </c>
       <c r="N31" t="n">
-        <v>0.09888323453721586</v>
+        <v>0.1548862451936283</v>
       </c>
       <c r="O31" t="n">
-        <v>0.02150365046391599</v>
+        <v>0.03194653232132395</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'gamma': 'scale', 'epsilon': 4.956947932799957e-06, 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False, 'max_iter': 500000}</t>
+          <t>{'kernel': 'linear', 'C': 0.012708183589980318, 'gamma': 'auto', 'epsilon': 0.9108190770693683, 'coef0': 0.5151520102731548, 'degree': 3, 'shrinking': False, 'max_iter': 500000}</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -2342,36 +2342,36 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>{'n_estimators': 105, 'max_depth': 7, 'learning_rate': 0.06487477066058678, 'subsample': 0.5545407216655058, 'colsample_bytree': 0.9802474579046725, 'colsample_bylevel': 0.9737131064594777, 'gamma': 2.5178229582536416, 'min_child_weight': 0.09749762207436122, 'reg_alpha': 5.103930927389519e-06, 'reg_lambda': 3.660702614351293e-06, 'booster': 'dart', 'tree_method': 'auto'}</t>
+          <t>{'n_estimators': 154, 'max_depth': 12, 'learning_rate': 0.10464832251945343, 'subsample': 0.9813116529329687, 'colsample_bytree': 0.6984590907997648, 'colsample_bylevel': 0.6703618775377733, 'gamma': 2.7673717750609663, 'min_child_weight': 4.602668616644765, 'reg_alpha': 0.0021200315650179366, 'reg_lambda': 1.3321747164041198, 'booster': 'dart', 'tree_method': 'approx'}</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>-0.1668650275467384</v>
+        <v>-0.1898168661482792</v>
       </c>
       <c r="I32" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J32" t="n">
-        <v>0.8196930966032309</v>
+        <v>0.7981128402309707</v>
       </c>
       <c r="K32" t="n">
-        <v>0.06004357198028952</v>
+        <v>0.07132275002605383</v>
       </c>
       <c r="L32" t="n">
-        <v>1.858031913084278</v>
+        <v>1.524671267457339</v>
       </c>
       <c r="M32" t="n">
-        <v>0.6757358223531376</v>
+        <v>0.446117335128436</v>
       </c>
       <c r="N32" t="n">
-        <v>0.1668650275467384</v>
+        <v>0.1898168661482792</v>
       </c>
       <c r="O32" t="n">
-        <v>0.03315584307433829</v>
+        <v>0.03884907775881406</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>{'n_estimators': 105, 'max_depth': 7, 'learning_rate': 0.06487477066058678, 'subsample': 0.5545407216655058, 'colsample_bytree': 0.9802474579046725, 'colsample_bylevel': 0.9737131064594777, 'gamma': 2.5178229582536416, 'min_child_weight': 0.09749762207436122, 'reg_alpha': 5.103930927389519e-06, 'reg_lambda': 3.660702614351293e-06, 'booster': 'dart', 'tree_method': 'auto', 'random_state': 42, 'verbosity': 0}</t>
+          <t>{'n_estimators': 154, 'max_depth': 12, 'learning_rate': 0.10464832251945343, 'subsample': 0.9813116529329687, 'colsample_bytree': 0.6984590907997648, 'colsample_bylevel': 0.6703618775377733, 'gamma': 2.7673717750609663, 'min_child_weight': 4.602668616644765, 'reg_alpha': 0.0021200315650179366, 'reg_lambda': 1.3321747164041198, 'booster': 'dart', 'tree_method': 'approx', 'random_state': 42, 'verbosity': 0}</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E33" t="n">
         <v>2</v>
@@ -2402,36 +2402,36 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'max_depth': 9, 'learning_rate': 0.11044350847124683, 'subsample': 0.6928940382986473, 'colsample_bytree': 0.8396770259681927, 'colsample_bylevel': 0.6456569174550735, 'gamma': 5.227328293819941, 'min_child_weight': 0.05130551760589835, 'reg_alpha': 1.6934490731313353e-08, 'reg_lambda': 9.354548757337708e-08, 'booster': 'dart', 'tree_method': 'approx'}</t>
+          <t>{'n_estimators': 237, 'max_depth': 2, 'learning_rate': 0.011557678423963404, 'subsample': 0.3860496551596858, 'colsample_bytree': 0.9179533864803571, 'colsample_bylevel': 0.954752404471172, 'gamma': 0.7964197199652057, 'min_child_weight': 1.9736936380914538, 'reg_alpha': 1.7652684460466443, 'reg_lambda': 0.0009141375517946631, 'booster': 'dart', 'tree_method': 'auto'}</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>-0.1171766702624123</v>
+        <v>-0.1402708795943819</v>
       </c>
       <c r="I33" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J33" t="n">
-        <v>0.8733531098757138</v>
+        <v>0.8494004677528934</v>
       </c>
       <c r="K33" t="n">
-        <v>0.118197159671704</v>
+        <v>0.1140951837346347</v>
       </c>
       <c r="L33" t="n">
-        <v>1.646897034462933</v>
+        <v>1.664285827806774</v>
       </c>
       <c r="M33" t="n">
-        <v>0.2492981600650216</v>
+        <v>0.2944247722787587</v>
       </c>
       <c r="N33" t="n">
-        <v>0.1171766702624123</v>
+        <v>0.1402708795943819</v>
       </c>
       <c r="O33" t="n">
-        <v>0.04450468842383212</v>
+        <v>0.04264640796957004</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'max_depth': 9, 'learning_rate': 0.11044350847124683, 'subsample': 0.6928940382986473, 'colsample_bytree': 0.8396770259681927, 'colsample_bylevel': 0.6456569174550735, 'gamma': 5.227328293819941, 'min_child_weight': 0.05130551760589835, 'reg_alpha': 1.6934490731313353e-08, 'reg_lambda': 9.354548757337708e-08, 'booster': 'dart', 'tree_method': 'approx', 'random_state': 42, 'verbosity': 0}</t>
+          <t>{'n_estimators': 237, 'max_depth': 2, 'learning_rate': 0.011557678423963404, 'subsample': 0.3860496551596858, 'colsample_bytree': 0.9179533864803571, 'colsample_bylevel': 0.954752404471172, 'gamma': 0.7964197199652057, 'min_child_weight': 1.9736936380914538, 'reg_alpha': 1.7652684460466443, 'reg_lambda': 0.0009141375517946631, 'booster': 'dart', 'tree_method': 'auto', 'random_state': 42, 'verbosity': 0}</t>
         </is>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E34" t="n">
         <v>3</v>
@@ -2462,36 +2462,36 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'max_depth': 9, 'learning_rate': 0.11044350847124683, 'subsample': 0.6928940382986473, 'colsample_bytree': 0.8396770259681927, 'colsample_bylevel': 0.6456569174550735, 'gamma': 5.227328293819941, 'min_child_weight': 0.05130551760589835, 'reg_alpha': 1.6934490731313353e-08, 'reg_lambda': 9.354548757337708e-08, 'booster': 'dart', 'tree_method': 'approx'}</t>
+          <t>{'n_estimators': 311, 'max_depth': 11, 'learning_rate': 0.031103543774232006, 'subsample': 0.9678517406990036, 'colsample_bytree': 0.8752400262301139, 'colsample_bylevel': 0.6150048312668811, 'gamma': 2.722436377136989, 'min_child_weight': 0.8104633857708735, 'reg_alpha': 0.03638012759158072, 'reg_lambda': 1.7431701967767506e-07, 'booster': 'dart', 'tree_method': 'approx'}</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>-0.161272662040811</v>
+        <v>-0.1859860349684812</v>
       </c>
       <c r="I34" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J34" t="n">
-        <v>0.8129531280531623</v>
+        <v>0.7911601406144478</v>
       </c>
       <c r="K34" t="n">
-        <v>0.09073685961983015</v>
+        <v>0.1003519534749068</v>
       </c>
       <c r="L34" t="n">
-        <v>1.552378257474538</v>
+        <v>1.448805704407187</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1531210080631175</v>
+        <v>0.214672639617516</v>
       </c>
       <c r="N34" t="n">
-        <v>0.161272662040811</v>
+        <v>0.1859860349684812</v>
       </c>
       <c r="O34" t="n">
-        <v>0.03154977469036187</v>
+        <v>0.02260075151992545</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'max_depth': 9, 'learning_rate': 0.11044350847124683, 'subsample': 0.6928940382986473, 'colsample_bytree': 0.8396770259681927, 'colsample_bylevel': 0.6456569174550735, 'gamma': 5.227328293819941, 'min_child_weight': 0.05130551760589835, 'reg_alpha': 1.6934490731313353e-08, 'reg_lambda': 9.354548757337708e-08, 'booster': 'dart', 'tree_method': 'approx', 'random_state': 42, 'verbosity': 0}</t>
+          <t>{'n_estimators': 311, 'max_depth': 11, 'learning_rate': 0.031103543774232006, 'subsample': 0.9678517406990036, 'colsample_bytree': 0.8752400262301139, 'colsample_bylevel': 0.6150048312668811, 'gamma': 2.722436377136989, 'min_child_weight': 0.8104633857708735, 'reg_alpha': 0.03638012759158072, 'reg_lambda': 1.7431701967767506e-07, 'booster': 'dart', 'tree_method': 'approx', 'random_state': 42, 'verbosity': 0}</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2522,36 +2522,36 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>{'n_estimators': 105, 'max_depth': 7, 'learning_rate': 0.06487477066058678, 'subsample': 0.5545407216655058, 'colsample_bytree': 0.9802474579046725, 'colsample_bylevel': 0.9737131064594777, 'gamma': 2.5178229582536416, 'min_child_weight': 0.09749762207436122, 'reg_alpha': 5.103930927389519e-06, 'reg_lambda': 3.660702614351293e-06, 'booster': 'dart', 'tree_method': 'auto'}</t>
+          <t>{'n_estimators': 230, 'max_depth': 10, 'learning_rate': 0.14216555138821294, 'subsample': 0.6149697540423608, 'colsample_bytree': 0.7733263318542332, 'colsample_bylevel': 0.8895440704637709, 'gamma': 6.142815529085823, 'min_child_weight': 0.0017284537157237817, 'reg_alpha': 3.3824078305979634e-05, 'reg_lambda': 3.929327928835984e-05, 'booster': 'dart', 'tree_method': 'auto'}</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-0.1696541709439873</v>
+        <v>-0.1950822949360625</v>
       </c>
       <c r="I35" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="J35" t="n">
-        <v>0.8152513401344055</v>
+        <v>0.7947892094209181</v>
       </c>
       <c r="K35" t="n">
-        <v>0.06113955056873411</v>
+        <v>0.06774452511503773</v>
       </c>
       <c r="L35" t="n">
-        <v>2.152130263370883</v>
+        <v>1.862959972333832</v>
       </c>
       <c r="M35" t="n">
-        <v>0.4680363613269121</v>
+        <v>0.2534898859578539</v>
       </c>
       <c r="N35" t="n">
-        <v>0.1696541709439873</v>
+        <v>0.1950822949360625</v>
       </c>
       <c r="O35" t="n">
-        <v>0.05659263447654064</v>
+        <v>0.03815967714999476</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>{'n_estimators': 105, 'max_depth': 7, 'learning_rate': 0.06487477066058678, 'subsample': 0.5545407216655058, 'colsample_bytree': 0.9802474579046725, 'colsample_bylevel': 0.9737131064594777, 'gamma': 2.5178229582536416, 'min_child_weight': 0.09749762207436122, 'reg_alpha': 5.103930927389519e-06, 'reg_lambda': 3.660702614351293e-06, 'booster': 'dart', 'tree_method': 'auto', 'random_state': 42, 'verbosity': 0}</t>
+          <t>{'n_estimators': 230, 'max_depth': 10, 'learning_rate': 0.14216555138821294, 'subsample': 0.6149697540423608, 'colsample_bytree': 0.7733263318542332, 'colsample_bylevel': 0.8895440704637709, 'gamma': 6.142815529085823, 'min_child_weight': 0.0017284537157237817, 'reg_alpha': 3.3824078305979634e-05, 'reg_lambda': 3.929327928835984e-05, 'booster': 'dart', 'tree_method': 'auto', 'random_state': 42, 'verbosity': 0}</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-02-03_22-07</t>
+          <t>2026-02-03_22-53</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2582,36 +2582,36 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'max_depth': 9, 'learning_rate': 0.11044350847124683, 'subsample': 0.6928940382986473, 'colsample_bytree': 0.8396770259681927, 'colsample_bylevel': 0.6456569174550735, 'gamma': 5.227328293819941, 'min_child_weight': 0.05130551760589835, 'reg_alpha': 1.6934490731313353e-08, 'reg_lambda': 9.354548757337708e-08, 'booster': 'dart', 'tree_method': 'approx'}</t>
+          <t>{'n_estimators': 229, 'max_depth': 8, 'learning_rate': 0.034464922497672204, 'subsample': 0.6413565989281947, 'colsample_bytree': 0.9805040998853402, 'colsample_bylevel': 0.6337367485188962, 'gamma': 4.7651417715729405, 'min_child_weight': 0.10220984090756183, 'reg_alpha': 6.221100953488741e-05, 'reg_lambda': 1.69475955970272e-07, 'booster': 'dart', 'tree_method': 'auto'}</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>-0.1880677434579859</v>
+        <v>-0.2010313421477212</v>
       </c>
       <c r="I36" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J36" t="n">
-        <v>0.797344496482021</v>
+        <v>0.7819472331780488</v>
       </c>
       <c r="K36" t="n">
-        <v>0.02680364856498938</v>
+        <v>0.01428087371065762</v>
       </c>
       <c r="L36" t="n">
-        <v>15.44952883713177</v>
+        <v>15.03367492215596</v>
       </c>
       <c r="M36" t="n">
-        <v>19.12114251248513</v>
+        <v>21.62396388766706</v>
       </c>
       <c r="N36" t="n">
-        <v>0.1880677434579859</v>
+        <v>0.2010313421477212</v>
       </c>
       <c r="O36" t="n">
-        <v>0.007041519177521257</v>
+        <v>0.0223594821608693</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'max_depth': 9, 'learning_rate': 0.11044350847124683, 'subsample': 0.6928940382986473, 'colsample_bytree': 0.8396770259681927, 'colsample_bylevel': 0.6456569174550735, 'gamma': 5.227328293819941, 'min_child_weight': 0.05130551760589835, 'reg_alpha': 1.6934490731313353e-08, 'reg_lambda': 9.354548757337708e-08, 'booster': 'dart', 'tree_method': 'approx', 'random_state': 42, 'verbosity': 0}</t>
+          <t>{'n_estimators': 229, 'max_depth': 8, 'learning_rate': 0.034464922497672204, 'subsample': 0.6413565989281947, 'colsample_bytree': 0.9805040998853402, 'colsample_bylevel': 0.6337367485188962, 'gamma': 4.7651417715729405, 'min_child_weight': 0.10220984090756183, 'reg_alpha': 6.221100953488741e-05, 'reg_lambda': 1.69475955970272e-07, 'booster': 'dart', 'tree_method': 'auto', 'random_state': 42, 'verbosity': 0}</t>
         </is>
       </c>
     </row>
